--- a/final project/sales.xlsx
+++ b/final project/sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,6 +778,29 @@
         <v>89.90000000000001</v>
       </c>
     </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final project/sales.xlsx
+++ b/final project/sales.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiliazorin\Desktop\yesodotnew\Group2_Yesodot\final project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DA7E8B-7053-428D-8C2A-9F09F1B16D27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="1" r:id="rId1"/>
@@ -15,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>receipt num</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -29,37 +32,34 @@
     <t>day</t>
   </si>
   <si>
-    <t xml:space="preserve">refund </t>
+    <t xml:space="preserve">recipect number </t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>code product</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>shoes</t>
   </si>
   <si>
     <t>amount</t>
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>recipect number</t>
-  </si>
-  <si>
-    <t>shirts</t>
-  </si>
-  <si>
-    <t>shirt</t>
-  </si>
-  <si>
-    <t>shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recipect number </t>
-  </si>
-  <si>
-    <t>refund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,6 +100,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -148,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,9 +184,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +428,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,123 +451,154 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2019</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>89.9</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>70</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>89.9</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>250</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -534,10 +607,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -548,19 +621,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/final project/sales.xlsx
+++ b/final project/sales.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>blouses</t>
+  </si>
+  <si>
+    <t>skirts</t>
   </si>
   <si>
     <t xml:space="preserve">recipect number </t>
@@ -385,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,6 +605,58 @@
       </c>
       <c r="H9">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>119.9</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +674,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -631,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/final project/sales.xlsx
+++ b/final project/sales.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales01" sheetId="1" r:id="rId1"/>
+    <sheet name="sales" sheetId="1" r:id="rId1"/>
     <sheet name="cancelled sales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -38,6 +38,9 @@
     <t>price</t>
   </si>
   <si>
+    <t>recipect number</t>
+  </si>
+  <si>
     <t>socks</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>skirts</t>
+  </si>
+  <si>
+    <t>tank tops</t>
   </si>
   <si>
     <t xml:space="preserve">recipect number </t>
@@ -388,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,6 +422,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
@@ -431,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -454,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -477,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -500,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -523,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -546,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -569,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -595,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -621,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -647,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -657,6 +666,136 @@
       </c>
       <c r="H11">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>119.9</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -674,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -686,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -721,6 +860,57 @@
       </c>
       <c r="E3">
         <v>661.2760000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/final project/sales.xlsx
+++ b/final project/sales.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sales" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales01" sheetId="1" r:id="rId1"/>
     <sheet name="cancelled sales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,6 +796,32 @@
       </c>
       <c r="H16">
         <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/final project/sales.xlsx
+++ b/final project/sales.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,6 +822,32 @@
       </c>
       <c r="H17">
         <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
